--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B232742-1CB2-49A7-BFAC-E593D5197145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F68F4C-210D-41F3-BD8F-FD5CA0683B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,22 @@
   </si>
   <si>
     <t>4000교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B49" si="0">B3*10</f>
+        <f t="shared" ref="B4:B53" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1836,6 +1852,78 @@
       </c>
       <c r="E49" s="1">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>48</v>
+      </c>
+      <c r="B50" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E+128</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="23">
+        <v>40000000000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <v>49</v>
+      </c>
+      <c r="B51" s="19">
+        <f t="shared" si="0"/>
+        <v>4E+129</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="23">
+        <v>42000000000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>50</v>
+      </c>
+      <c r="B52" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E+130</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="23">
+        <v>44000000000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>51</v>
+      </c>
+      <c r="B53" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000004E+131</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="23">
+        <v>46000000000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2929,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F68F4C-210D-41F3-BD8F-FD5CA0683B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474FF67-A83A-4F77-A979-A0792DA31EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,22 @@
   </si>
   <si>
     <t>4000위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,11 +976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B53" si="0">B3*10</f>
+        <f t="shared" ref="B4:B57" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1924,6 +1940,78 @@
       </c>
       <c r="E53" s="1">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>52</v>
+      </c>
+      <c r="B54" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000006E+132</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="23">
+        <v>48000000000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <v>53</v>
+      </c>
+      <c r="B55" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000006E+133</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="23">
+        <v>50000000000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
+        <v>54</v>
+      </c>
+      <c r="B56" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+134</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="23">
+        <v>52000000000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>55</v>
+      </c>
+      <c r="B57" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000005E+135</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="23">
+        <v>54000000000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1937,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474FF67-A83A-4F77-A979-A0792DA31EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A2C1A-DD00-4EE3-9E45-AF0BC17FED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,22 @@
   </si>
   <si>
     <t>4000설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B57" si="0">B3*10</f>
+        <f t="shared" ref="B4:B61" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2012,6 +2028,78 @@
       </c>
       <c r="E57" s="1">
         <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>56</v>
+      </c>
+      <c r="B58" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+136</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="23">
+        <v>56000000000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>57</v>
+      </c>
+      <c r="B59" s="19">
+        <f t="shared" si="0"/>
+        <v>4.000000000000001E+137</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="23">
+        <v>58000000000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>58</v>
+      </c>
+      <c r="B60" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E+138</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="23">
+        <v>60000000000</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <v>59</v>
+      </c>
+      <c r="B61" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000007E+139</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="23">
+        <v>62000000000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3105,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A2C1A-DD00-4EE3-9E45-AF0BC17FED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B7F0F-1EA7-4C54-8B06-450C362622C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,22 @@
   </si>
   <si>
     <t>4000적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1063,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B61" si="0">B3*10</f>
+        <f t="shared" ref="B4:B65" si="0">B3*10</f>
         <v>3.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2100,6 +2116,78 @@
       </c>
       <c r="E61" s="1">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>60</v>
+      </c>
+      <c r="B62" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000011E+140</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="23">
+        <v>64000000000</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000007E+141</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="23">
+        <v>66000000000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>62</v>
+      </c>
+      <c r="B64" s="19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000007E+142</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="23">
+        <v>68000000000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>63</v>
+      </c>
+      <c r="B65" s="19">
+        <f t="shared" si="0"/>
+        <v>4.000000000000001E+143</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="23">
+        <v>70000000000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B7F0F-1EA7-4C54-8B06-450C362622C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8549431-6620-48DE-8967-99FF24F06714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,223 +254,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4업</t>
-  </si>
-  <si>
-    <t>40업</t>
-  </si>
-  <si>
-    <t>400업</t>
-  </si>
-  <si>
-    <t>4000업</t>
-  </si>
-  <si>
-    <t>4긍</t>
-  </si>
-  <si>
-    <t>40긍</t>
-  </si>
-  <si>
-    <t>400긍</t>
-  </si>
-  <si>
-    <t>4000긍</t>
-  </si>
-  <si>
-    <t>4갈</t>
-  </si>
-  <si>
-    <t>40갈</t>
-  </si>
-  <si>
-    <t>400갈</t>
-  </si>
-  <si>
-    <t>4000갈</t>
-  </si>
-  <si>
-    <t>4라</t>
-  </si>
-  <si>
-    <t>40라</t>
-  </si>
-  <si>
-    <t>400라</t>
-  </si>
-  <si>
-    <t>4000라</t>
-  </si>
-  <si>
-    <t>4가</t>
-  </si>
-  <si>
-    <t>40가</t>
-  </si>
-  <si>
-    <t>400가</t>
-  </si>
-  <si>
-    <t>4000가</t>
-  </si>
-  <si>
-    <t>4언</t>
-  </si>
-  <si>
-    <t>40언</t>
-  </si>
-  <si>
-    <t>400언</t>
-  </si>
-  <si>
-    <t>4000언</t>
-  </si>
-  <si>
-    <t>4승</t>
-  </si>
-  <si>
-    <t>40승</t>
-  </si>
-  <si>
-    <t>400승</t>
-  </si>
-  <si>
-    <t>4000승</t>
-  </si>
-  <si>
-    <t>4마</t>
-  </si>
-  <si>
-    <t>40마</t>
-  </si>
-  <si>
-    <t>400마</t>
-  </si>
-  <si>
-    <t>4000마</t>
-  </si>
-  <si>
-    <t>4살</t>
-  </si>
-  <si>
-    <t>40살</t>
-  </si>
-  <si>
-    <t>400살</t>
-  </si>
-  <si>
-    <t>4000살</t>
-  </si>
-  <si>
-    <t>4섬</t>
-  </si>
-  <si>
-    <t>40섬</t>
-  </si>
-  <si>
-    <t>400섬</t>
-  </si>
-  <si>
-    <t>4000섬</t>
-  </si>
-  <si>
     <t>AddChargeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4찰</t>
+    <t>2업</t>
+  </si>
+  <si>
+    <t>20업</t>
+  </si>
+  <si>
+    <t>200업</t>
+  </si>
+  <si>
+    <t>2000업</t>
+  </si>
+  <si>
+    <t>2긍</t>
+  </si>
+  <si>
+    <t>20긍</t>
+  </si>
+  <si>
+    <t>200긍</t>
+  </si>
+  <si>
+    <t>2000긍</t>
+  </si>
+  <si>
+    <t>2갈</t>
+  </si>
+  <si>
+    <t>20갈</t>
+  </si>
+  <si>
+    <t>200갈</t>
+  </si>
+  <si>
+    <t>2000갈</t>
+  </si>
+  <si>
+    <t>2라</t>
+  </si>
+  <si>
+    <t>20라</t>
+  </si>
+  <si>
+    <t>200라</t>
+  </si>
+  <si>
+    <t>2000라</t>
+  </si>
+  <si>
+    <t>2가</t>
+  </si>
+  <si>
+    <t>20가</t>
+  </si>
+  <si>
+    <t>2000가</t>
+  </si>
+  <si>
+    <t>2언</t>
+  </si>
+  <si>
+    <t>20언</t>
+  </si>
+  <si>
+    <t>200언</t>
+  </si>
+  <si>
+    <t>2000언</t>
+  </si>
+  <si>
+    <t>2승</t>
+  </si>
+  <si>
+    <t>20승</t>
+  </si>
+  <si>
+    <t>200승</t>
+  </si>
+  <si>
+    <t>2000승</t>
+  </si>
+  <si>
+    <t>2마</t>
+  </si>
+  <si>
+    <t>20마</t>
+  </si>
+  <si>
+    <t>200마</t>
+  </si>
+  <si>
+    <t>2000마</t>
+  </si>
+  <si>
+    <t>2살</t>
+  </si>
+  <si>
+    <t>20살</t>
+  </si>
+  <si>
+    <t>200살</t>
+  </si>
+  <si>
+    <t>2000살</t>
+  </si>
+  <si>
+    <t>2섬</t>
+  </si>
+  <si>
+    <t>20섬</t>
+  </si>
+  <si>
+    <t>200섬</t>
+  </si>
+  <si>
+    <t>2000섬</t>
+  </si>
+  <si>
+    <t>2찰</t>
+  </si>
+  <si>
+    <t>20찰</t>
+  </si>
+  <si>
+    <t>200찰</t>
+  </si>
+  <si>
+    <t>2000찰</t>
+  </si>
+  <si>
+    <t>2교</t>
+  </si>
+  <si>
+    <t>20교</t>
+  </si>
+  <si>
+    <t>200교</t>
+  </si>
+  <si>
+    <t>2000교</t>
+  </si>
+  <si>
+    <t>2위</t>
+  </si>
+  <si>
+    <t>20위</t>
+  </si>
+  <si>
+    <t>200위</t>
+  </si>
+  <si>
+    <t>2000위</t>
+  </si>
+  <si>
+    <t>2설</t>
+  </si>
+  <si>
+    <t>20설</t>
+  </si>
+  <si>
+    <t>200설</t>
+  </si>
+  <si>
+    <t>2000설</t>
+  </si>
+  <si>
+    <t>2적</t>
+  </si>
+  <si>
+    <t>20적</t>
+  </si>
+  <si>
+    <t>200적</t>
+  </si>
+  <si>
+    <t>2000적</t>
+  </si>
+  <si>
+    <t>2고</t>
+  </si>
+  <si>
+    <t>20고</t>
+  </si>
+  <si>
+    <t>200고</t>
+  </si>
+  <si>
+    <t>2000고</t>
+  </si>
+  <si>
+    <t>2화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40찰</t>
+    <t>20화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>400찰</t>
+    <t>200화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4000찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000고</t>
+    <t>2000화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,11 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1025,7 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1044,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="19">
-        <v>4E+80</v>
+        <v>2E+80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="23">
         <v>400000000</v>
@@ -1062,10 +1051,10 @@
       </c>
       <c r="B3" s="19">
         <f>B2*10</f>
-        <v>3.9999999999999997E+81</v>
+        <v>1.9999999999999998E+81</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="23">
         <v>500000000</v>
@@ -1079,11 +1068,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B65" si="0">B3*10</f>
-        <v>3.9999999999999999E+82</v>
+        <f t="shared" ref="B4:B67" si="0">B3*10</f>
+        <v>1.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="23">
         <v>600000000</v>
@@ -1098,10 +1087,10 @@
       </c>
       <c r="B5" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996E+83</v>
+        <v>1.9999999999999998E+83</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="23">
         <v>700000000</v>
@@ -1116,10 +1105,10 @@
       </c>
       <c r="B6" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999994E+84</v>
+        <v>1.9999999999999997E+84</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="23">
         <v>800000000</v>
@@ -1134,10 +1123,10 @@
       </c>
       <c r="B7" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999994E+85</v>
+        <v>1.9999999999999997E+85</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="23">
         <v>900000000</v>
@@ -1152,10 +1141,10 @@
       </c>
       <c r="B8" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999995E+86</v>
+        <v>1.9999999999999998E+86</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="23">
         <v>1000000000</v>
@@ -1170,10 +1159,10 @@
       </c>
       <c r="B9" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999998E+87</v>
+        <v>1.9999999999999999E+87</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="23">
         <v>1200000000</v>
@@ -1188,10 +1177,10 @@
       </c>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999998E+88</v>
+        <v>1.9999999999999999E+88</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23">
         <v>1400000000</v>
@@ -1206,10 +1195,10 @@
       </c>
       <c r="B11" s="19">
         <f t="shared" si="0"/>
-        <v>4E+89</v>
+        <v>2E+89</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="23">
         <v>1600000000</v>
@@ -1224,10 +1213,10 @@
       </c>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999999E+90</v>
+        <v>1.9999999999999999E+90</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="23">
         <v>1800000000</v>
@@ -1242,10 +1231,10 @@
       </c>
       <c r="B13" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996E+91</v>
+        <v>1.9999999999999998E+91</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="23">
         <v>2000000000</v>
@@ -1260,10 +1249,10 @@
       </c>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996E+92</v>
+        <v>1.9999999999999998E+92</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="23">
         <v>2200000000</v>
@@ -1278,10 +1267,10 @@
       </c>
       <c r="B15" s="19">
         <f t="shared" si="0"/>
-        <v>3.9999999999999997E+93</v>
+        <v>1.9999999999999999E+93</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="23">
         <v>2400000000</v>
@@ -1296,10 +1285,10 @@
       </c>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E+94</v>
+        <v>2E+94</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="23">
         <v>2600000000</v>
@@ -1314,10 +1303,10 @@
       </c>
       <c r="B17" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E+95</v>
+        <v>2E+95</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="23">
         <v>2800000000</v>
@@ -1332,10 +1321,10 @@
       </c>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E+96</v>
+        <v>2.0000000000000001E+96</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="23">
         <v>3000000000</v>
@@ -1350,10 +1339,10 @@
       </c>
       <c r="B19" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E+97</v>
+        <v>2.0000000000000001E+97</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="23">
         <v>3500000000</v>
@@ -1368,10 +1357,10 @@
       </c>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+98</v>
+        <v>2.0000000000000003E+98</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D20" s="23">
         <v>4000000000</v>
@@ -1386,7 +1375,7 @@
       </c>
       <c r="B21" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+99</v>
+        <v>2.0000000000000004E+99</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>76</v>
@@ -1404,7 +1393,7 @@
       </c>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+100</v>
+        <v>2.0000000000000004E+100</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>77</v>
@@ -1422,7 +1411,7 @@
       </c>
       <c r="B23" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000012E+101</v>
+        <v>2.0000000000000006E+101</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>78</v>
@@ -1440,7 +1429,7 @@
       </c>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000014E+102</v>
+        <v>2.0000000000000007E+102</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>79</v>
@@ -1458,7 +1447,7 @@
       </c>
       <c r="B25" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000016E+103</v>
+        <v>2.0000000000000008E+103</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>80</v>
@@ -1476,7 +1465,7 @@
       </c>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000013E+104</v>
+        <v>2.0000000000000006E+104</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>81</v>
@@ -1494,7 +1483,7 @@
       </c>
       <c r="B27" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000013E+105</v>
+        <v>2.0000000000000006E+105</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>82</v>
@@ -1512,7 +1501,7 @@
       </c>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000012E+106</v>
+        <v>2.0000000000000006E+106</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>83</v>
@@ -1530,7 +1519,7 @@
       </c>
       <c r="B29" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000012E+107</v>
+        <v>2.0000000000000006E+107</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>84</v>
@@ -1548,7 +1537,7 @@
       </c>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000012E+108</v>
+        <v>2.0000000000000006E+108</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>85</v>
@@ -1566,7 +1555,7 @@
       </c>
       <c r="B31" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+109</v>
+        <v>2.0000000000000004E+109</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>86</v>
@@ -1584,7 +1573,7 @@
       </c>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+110</v>
+        <v>2.0000000000000004E+110</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>87</v>
@@ -1602,7 +1591,7 @@
       </c>
       <c r="B33" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000009E+111</v>
+        <v>2.0000000000000004E+111</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>88</v>
@@ -1620,7 +1609,7 @@
       </c>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+112</v>
+        <v>2.0000000000000003E+112</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>89</v>
@@ -1638,7 +1627,7 @@
       </c>
       <c r="B35" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000007E+113</v>
+        <v>2.0000000000000004E+113</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>90</v>
@@ -1656,7 +1645,7 @@
       </c>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+114</v>
+        <v>2.0000000000000003E+114</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>91</v>
@@ -1674,7 +1663,7 @@
       </c>
       <c r="B37" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000009E+115</v>
+        <v>2.0000000000000005E+115</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>92</v>
@@ -1692,7 +1681,7 @@
       </c>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+116</v>
+        <v>2.0000000000000004E+116</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>93</v>
@@ -1710,7 +1699,7 @@
       </c>
       <c r="B39" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+117</v>
+        <v>2.0000000000000004E+117</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>94</v>
@@ -1728,7 +1717,7 @@
       </c>
       <c r="B40" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+118</v>
+        <v>2.0000000000000004E+118</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>95</v>
@@ -1746,7 +1735,7 @@
       </c>
       <c r="B41" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+119</v>
+        <v>2.0000000000000002E+119</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>96</v>
@@ -1764,10 +1753,10 @@
       </c>
       <c r="B42" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+120</v>
+        <v>2.0000000000000002E+120</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="23">
         <v>24000000000</v>
@@ -1782,10 +1771,10 @@
       </c>
       <c r="B43" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+121</v>
+        <v>2.0000000000000003E+121</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="23">
         <v>26000000000</v>
@@ -1800,10 +1789,10 @@
       </c>
       <c r="B44" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+122</v>
+        <v>2.0000000000000004E+122</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="23">
         <v>28000000000</v>
@@ -1818,10 +1807,10 @@
       </c>
       <c r="B45" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+123</v>
+        <v>2.0000000000000002E+123</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="23">
         <v>30000000000</v>
@@ -1836,10 +1825,10 @@
       </c>
       <c r="B46" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E+124</v>
+        <v>2.0000000000000001E+124</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="23">
         <v>32000000000</v>
@@ -1854,10 +1843,10 @@
       </c>
       <c r="B47" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+125</v>
+        <v>2.0000000000000002E+125</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="23">
         <v>34000000000</v>
@@ -1872,10 +1861,10 @@
       </c>
       <c r="B48" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E+126</v>
+        <v>2.0000000000000002E+126</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="23">
         <v>36000000000</v>
@@ -1890,10 +1879,10 @@
       </c>
       <c r="B49" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E+127</v>
+        <v>2.0000000000000002E+127</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="23">
         <v>38000000000</v>
@@ -1908,10 +1897,10 @@
       </c>
       <c r="B50" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E+128</v>
+        <v>2.0000000000000002E+128</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="23">
         <v>40000000000</v>
@@ -1926,10 +1915,10 @@
       </c>
       <c r="B51" s="19">
         <f t="shared" si="0"/>
-        <v>4E+129</v>
+        <v>2E+129</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="23">
         <v>42000000000</v>
@@ -1944,10 +1933,10 @@
       </c>
       <c r="B52" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E+130</v>
+        <v>2.0000000000000001E+130</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="23">
         <v>44000000000</v>
@@ -1962,10 +1951,10 @@
       </c>
       <c r="B53" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000004E+131</v>
+        <v>2.0000000000000002E+131</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="23">
         <v>46000000000</v>
@@ -1980,10 +1969,10 @@
       </c>
       <c r="B54" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+132</v>
+        <v>2.0000000000000003E+132</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="23">
         <v>48000000000</v>
@@ -1998,10 +1987,10 @@
       </c>
       <c r="B55" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000006E+133</v>
+        <v>2.0000000000000003E+133</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="23">
         <v>50000000000</v>
@@ -2016,10 +2005,10 @@
       </c>
       <c r="B56" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+134</v>
+        <v>2.0000000000000002E+134</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="23">
         <v>52000000000</v>
@@ -2034,10 +2023,10 @@
       </c>
       <c r="B57" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000005E+135</v>
+        <v>2.0000000000000002E+135</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="23">
         <v>54000000000</v>
@@ -2052,10 +2041,10 @@
       </c>
       <c r="B58" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+136</v>
+        <v>2.0000000000000004E+136</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="23">
         <v>56000000000</v>
@@ -2070,10 +2059,10 @@
       </c>
       <c r="B59" s="19">
         <f t="shared" si="0"/>
-        <v>4.000000000000001E+137</v>
+        <v>2.0000000000000005E+137</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="23">
         <v>58000000000</v>
@@ -2088,10 +2077,10 @@
       </c>
       <c r="B60" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E+138</v>
+        <v>2.0000000000000004E+138</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" s="23">
         <v>60000000000</v>
@@ -2106,10 +2095,10 @@
       </c>
       <c r="B61" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000007E+139</v>
+        <v>2.0000000000000003E+139</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D61" s="23">
         <v>62000000000</v>
@@ -2124,10 +2113,10 @@
       </c>
       <c r="B62" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000011E+140</v>
+        <v>2.0000000000000005E+140</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="23">
         <v>64000000000</v>
@@ -2142,10 +2131,10 @@
       </c>
       <c r="B63" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000007E+141</v>
+        <v>2.0000000000000004E+141</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D63" s="23">
         <v>66000000000</v>
@@ -2160,10 +2149,10 @@
       </c>
       <c r="B64" s="19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000007E+142</v>
+        <v>2.0000000000000004E+142</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="23">
         <v>68000000000</v>
@@ -2178,16 +2167,88 @@
       </c>
       <c r="B65" s="19">
         <f t="shared" si="0"/>
-        <v>4.000000000000001E+143</v>
+        <v>2.0000000000000005E+143</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="23">
         <v>70000000000</v>
       </c>
       <c r="E65" s="1">
         <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>64</v>
+      </c>
+      <c r="B66" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004E+144</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="23">
+        <v>72000000000</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>65</v>
+      </c>
+      <c r="B67" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000005E+145</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="23">
+        <v>74000000000</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>66</v>
+      </c>
+      <c r="B68" s="19">
+        <f t="shared" ref="B68:B69" si="1">B67*10</f>
+        <v>2.0000000000000003E+146</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="23">
+        <v>76000000000</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="18">
+        <v>67</v>
+      </c>
+      <c r="B69" s="19">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000003E+147</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="23">
+        <v>78000000000</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3192,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8549431-6620-48DE-8967-99FF24F06714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053F4A0-C02B-4BFF-A624-F2AD7C7AB573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,22 @@
   </si>
   <si>
     <t>2000화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19">
-        <f t="shared" ref="B4:B67" si="0">B3*10</f>
+        <f t="shared" ref="B4:B65" si="0">B3*10</f>
         <v>1.9999999999999999E+82</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2184,7 +2200,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="19">
-        <f t="shared" si="0"/>
+        <f>B65*10</f>
         <v>2.0000000000000004E+144</v>
       </c>
       <c r="C66" s="21" t="s">
@@ -2202,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" si="0"/>
+        <f>B66*10</f>
         <v>2.0000000000000005E+145</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -2249,6 +2265,78 @@
       </c>
       <c r="E69" s="1">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
+        <v>68</v>
+      </c>
+      <c r="B70" s="19">
+        <f>B69*10</f>
+        <v>2.0000000000000004E+148</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="23">
+        <v>80000000000</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
+        <v>69</v>
+      </c>
+      <c r="B71" s="19">
+        <f>B70*10</f>
+        <v>2.0000000000000003E+149</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="23">
+        <v>85000000000</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <v>70</v>
+      </c>
+      <c r="B72" s="19">
+        <f t="shared" ref="B72:B73" si="2">B71*10</f>
+        <v>2.0000000000000003E+150</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="23">
+        <v>90000000000</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <v>71</v>
+      </c>
+      <c r="B73" s="19">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000003E+151</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="23">
+        <v>95000000000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053F4A0-C02B-4BFF-A624-F2AD7C7AB573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96471013-7F00-4468-AD0F-70B7B78BE283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,22 @@
   </si>
   <si>
     <t>2000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2337,6 +2353,78 @@
       </c>
       <c r="E73" s="1">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>72</v>
+      </c>
+      <c r="B74" s="19">
+        <f>B73*10</f>
+        <v>2.0000000000000003E+152</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="23">
+        <v>100000000000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
+        <v>73</v>
+      </c>
+      <c r="B75" s="19">
+        <f>B74*10</f>
+        <v>2.0000000000000004E+153</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="23">
+        <v>105000000000</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>74</v>
+      </c>
+      <c r="B76" s="19">
+        <f t="shared" ref="B76:B77" si="3">B75*10</f>
+        <v>2.0000000000000004E+154</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="23">
+        <v>110000000000</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>75</v>
+      </c>
+      <c r="B77" s="19">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000003E+155</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="23">
+        <v>115000000000</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -3341,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96471013-7F00-4468-AD0F-70B7B78BE283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E08614-809C-4B50-88F2-F7657C6DA259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,22 @@
   </si>
   <si>
     <t>2000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2427,6 +2443,78 @@
         <v>0.76</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>76</v>
+      </c>
+      <c r="B78" s="19">
+        <f>B77*10</f>
+        <v>2.0000000000000003E+156</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="23">
+        <v>120000000000</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>77</v>
+      </c>
+      <c r="B79" s="19">
+        <f>B78*10</f>
+        <v>2.0000000000000003E+157</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="23">
+        <v>125000000000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>78</v>
+      </c>
+      <c r="B80" s="19">
+        <f t="shared" ref="B80:B81" si="4">B79*10</f>
+        <v>2.0000000000000001E+158</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="23">
+        <v>130000000000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <v>79</v>
+      </c>
+      <c r="B81" s="19">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E+159</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="23">
+        <v>135000000000</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2438,9 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3429,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E08614-809C-4B50-88F2-F7657C6DA259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257FDE8-E4D6-418B-94AE-E5F6460F399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,22 @@
   </si>
   <si>
     <t>2000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,11 +1061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2513,6 +2529,78 @@
       </c>
       <c r="E81" s="1">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>80</v>
+      </c>
+      <c r="B82" s="19">
+        <f>B81*10</f>
+        <v>2.0000000000000003E+160</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="23">
+        <v>140000000000</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
+        <v>81</v>
+      </c>
+      <c r="B83" s="19">
+        <f>B82*10</f>
+        <v>2.0000000000000003E+161</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="23">
+        <v>145000000000</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>82</v>
+      </c>
+      <c r="B84" s="19">
+        <f t="shared" ref="B84:B85" si="5">B83*10</f>
+        <v>2.0000000000000003E+162</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="23">
+        <v>150000000000</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="18">
+        <v>83</v>
+      </c>
+      <c r="B85" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000002E+163</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="23">
+        <v>155000000000</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257FDE8-E4D6-418B-94AE-E5F6460F399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F90A3-12C5-4E18-90EF-5ECF8229AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,22 @@
   </si>
   <si>
     <t>2000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2601,6 +2617,78 @@
       </c>
       <c r="E85" s="1">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>84</v>
+      </c>
+      <c r="B86" s="19">
+        <f>B85*10</f>
+        <v>2.0000000000000003E+164</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="23">
+        <v>160000000000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="18">
+        <v>85</v>
+      </c>
+      <c r="B87" s="19">
+        <f>B86*10</f>
+        <v>2.0000000000000002E+165</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="23">
+        <v>165000000000</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="18">
+        <v>86</v>
+      </c>
+      <c r="B88" s="19">
+        <f t="shared" ref="B88:B89" si="6">B87*10</f>
+        <v>2.0000000000000002E+166</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="23">
+        <v>170000000000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.869999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>87</v>
+      </c>
+      <c r="B89" s="19">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000001E+167</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="23">
+        <v>175000000000</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.87999999999999901</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F90A3-12C5-4E18-90EF-5ECF8229AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA1E17-AB9D-435E-AF87-796CFA505D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="149">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,6 +540,22 @@
   </si>
   <si>
     <t>2000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2670,7 +2686,7 @@
         <v>170000000000</v>
       </c>
       <c r="E88" s="1">
-        <v>0.869999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2688,7 +2704,79 @@
         <v>175000000000</v>
       </c>
       <c r="E89" s="1">
-        <v>0.87999999999999901</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>88</v>
+      </c>
+      <c r="B90" s="19">
+        <f>B89*10</f>
+        <v>1.9999999999999999E+168</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="23">
+        <v>180000000000</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="18">
+        <v>89</v>
+      </c>
+      <c r="B91" s="19">
+        <f>B90*10</f>
+        <v>1.9999999999999999E+169</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="23">
+        <v>185000000000</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>90</v>
+      </c>
+      <c r="B92" s="19">
+        <f t="shared" ref="B92:B93" si="7">B91*10</f>
+        <v>1.9999999999999998E+170</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="23">
+        <v>190000000000</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
+        <v>91</v>
+      </c>
+      <c r="B93" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+171</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="23">
+        <v>195000000000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3691,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA1E17-AB9D-435E-AF87-796CFA505D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15627BC-2940-40EC-9EA6-611621D993D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,38 @@
   </si>
   <si>
     <t>2000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,11 +1125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2748,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B93" si="7">B91*10</f>
+        <f t="shared" ref="B92:B101" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -2773,10 +2805,154 @@
         <v>148</v>
       </c>
       <c r="D93" s="23">
-        <v>195000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="E93" s="1">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+172</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="23">
+        <v>250000000000</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+173</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="23">
+        <v>300000000000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999997E+174</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="23">
+        <v>350000000000</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>95</v>
+      </c>
+      <c r="B97" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+175</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="23">
+        <v>400000000000</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>96</v>
+      </c>
+      <c r="B98" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+176</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="23">
+        <v>500000000000</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="18">
+        <v>97</v>
+      </c>
+      <c r="B99" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+177</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="23">
+        <v>600000000000</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="18">
+        <v>98</v>
+      </c>
+      <c r="B100" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+178</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="23">
+        <v>700000000000</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="18">
+        <v>99</v>
+      </c>
+      <c r="B101" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+179</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="23">
+        <v>800000000000</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3958,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15627BC-2940-40EC-9EA6-611621D993D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6139C3E-0938-4FFB-A372-85063C534C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,38 @@
   </si>
   <si>
     <t>2000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2780,7 +2812,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B101" si="7">B91*10</f>
+        <f t="shared" ref="B92:B110" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -2953,6 +2985,150 @@
       </c>
       <c r="E101" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="18">
+        <v>100</v>
+      </c>
+      <c r="B102" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+180</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="23">
+        <v>900000000000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="18">
+        <v>101</v>
+      </c>
+      <c r="B103" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+181</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="23">
+        <v>1000000000000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="18">
+        <v>102</v>
+      </c>
+      <c r="B104" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+182</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="23">
+        <v>1100000000000</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="18">
+        <v>103</v>
+      </c>
+      <c r="B105" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+183</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="23">
+        <v>1200000000000</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+      <c r="B106" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+184</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="23">
+        <v>1300000000000</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+      <c r="B107" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+185</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="23">
+        <v>1400000000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="18">
+        <v>106</v>
+      </c>
+      <c r="B108" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+186</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" s="23">
+        <v>1500000000000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="18">
+        <v>107</v>
+      </c>
+      <c r="B109" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+187</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="23">
+        <v>1600000000000</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6139C3E-0938-4FFB-A372-85063C534C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483AE3F-C6A2-4268-A518-4C926388CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="169">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,19 +607,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000연</t>
+    <t>2피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2812,7 +2828,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B110" si="7">B91*10</f>
+        <f t="shared" ref="B92:B113" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3129,6 +3145,78 @@
       </c>
       <c r="E109" s="1">
         <v>1.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="18">
+        <v>108</v>
+      </c>
+      <c r="B110" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999997E+188</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="23">
+        <v>1700000000000</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="18">
+        <v>109</v>
+      </c>
+      <c r="B111" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+189</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" s="23">
+        <v>1800000000000</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
+        <v>110</v>
+      </c>
+      <c r="B112" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999997E+190</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="23">
+        <v>1900000000000</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="18">
+        <v>111</v>
+      </c>
+      <c r="B113" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+191</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="23">
+        <v>2000000000000</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1.1200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483AE3F-C6A2-4268-A518-4C926388CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27BBA5-5019-4A3D-A5F2-081AA3E97157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,22 @@
   </si>
   <si>
     <t>2000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,11 +1189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2844,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B113" si="7">B91*10</f>
+        <f t="shared" ref="B92:B117" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3217,6 +3233,78 @@
       </c>
       <c r="E113" s="1">
         <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="18">
+        <v>112</v>
+      </c>
+      <c r="B114" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+192</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="23">
+        <v>2100000000000</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="18">
+        <v>113</v>
+      </c>
+      <c r="B115" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999997E+193</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="23">
+        <v>2200000000000</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="18">
+        <v>114</v>
+      </c>
+      <c r="B116" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999996E+194</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D116" s="23">
+        <v>2300000000000</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="18">
+        <v>115</v>
+      </c>
+      <c r="B117" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999997E+195</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D117" s="23">
+        <v>2400000000000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1.1599999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27BBA5-5019-4A3D-A5F2-081AA3E97157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B506A-490A-41E3-865E-3DEAE006203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,38 @@
   </si>
   <si>
     <t>2000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C118:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2876,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B117" si="7">B91*10</f>
+        <f t="shared" ref="B92:B125" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3305,6 +3337,150 @@
       </c>
       <c r="E117" s="1">
         <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="18">
+        <v>116</v>
+      </c>
+      <c r="B118" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+196</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="23">
+        <v>2500000000000</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="18">
+        <v>117</v>
+      </c>
+      <c r="B119" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+197</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="23">
+        <v>2600000000000</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="18">
+        <v>118</v>
+      </c>
+      <c r="B120" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+198</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" s="23">
+        <v>2700000000000</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="18">
+        <v>119</v>
+      </c>
+      <c r="B121" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+199</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="23">
+        <v>2800000000000</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="18">
+        <v>120</v>
+      </c>
+      <c r="B122" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+200</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="23">
+        <v>2900000000000</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="18">
+        <v>121</v>
+      </c>
+      <c r="B123" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+201</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" s="23">
+        <v>3000000000000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="18">
+        <v>122</v>
+      </c>
+      <c r="B124" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+202</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="23">
+        <v>3100000000000</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="18">
+        <v>123</v>
+      </c>
+      <c r="B125" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+203</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" s="23">
+        <v>3200000000000</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B506A-490A-41E3-865E-3DEAE006203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A83DE-14F1-479E-918B-179D72D78235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,22 @@
   </si>
   <si>
     <t>2000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C118:C119"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2876,7 +2892,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B125" si="7">B91*10</f>
+        <f t="shared" ref="B92:B129" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3481,6 +3497,78 @@
       </c>
       <c r="E125" s="1">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="18">
+        <v>124</v>
+      </c>
+      <c r="B126" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+204</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="23">
+        <v>3300000000000</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="18">
+        <v>125</v>
+      </c>
+      <c r="B127" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+205</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="23">
+        <v>3400000000000</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="18">
+        <v>126</v>
+      </c>
+      <c r="B128" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+206</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" s="23">
+        <v>3500000000000</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="18">
+        <v>127</v>
+      </c>
+      <c r="B129" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+207</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" s="23">
+        <v>3600000000000</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A83DE-14F1-479E-918B-179D72D78235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24F668-B01F-4365-9B15-D07C2CB7C7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SealSwordAwakeTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +700,22 @@
   </si>
   <si>
     <t>2000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2892,7 +2908,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B129" si="7">B91*10</f>
+        <f t="shared" ref="B92:B133" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3569,6 +3585,78 @@
       </c>
       <c r="E129" s="1">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="18">
+        <v>128</v>
+      </c>
+      <c r="B130" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+208</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="23">
+        <v>3700000000000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>129</v>
+      </c>
+      <c r="B131" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+209</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="23">
+        <v>3800000000000</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="18">
+        <v>130</v>
+      </c>
+      <c r="B132" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+210</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D132" s="23">
+        <v>3900000000000</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="18">
+        <v>131</v>
+      </c>
+      <c r="B133" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+211</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133" s="23">
+        <v>4000000000000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24F668-B01F-4365-9B15-D07C2CB7C7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC3878-9592-4EC8-AB1E-520FE4978DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="193">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,22 @@
   </si>
   <si>
     <t>2000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,9 +973,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,7 +1013,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1103,7 +1119,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1245,7 +1261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1253,11 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2908,7 +2924,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B133" si="7">B91*10</f>
+        <f t="shared" ref="B92:B137" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3657,6 +3673,78 @@
       </c>
       <c r="E133" s="1">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="18">
+        <v>132</v>
+      </c>
+      <c r="B134" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+212</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D134" s="23">
+        <v>4100000000000</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="18">
+        <v>133</v>
+      </c>
+      <c r="B135" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000003E+213</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" s="23">
+        <v>4200000000000</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="18">
+        <v>134</v>
+      </c>
+      <c r="B136" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000004E+214</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" s="23">
+        <v>4300000000000</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="18">
+        <v>135</v>
+      </c>
+      <c r="B137" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+215</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D137" s="23">
+        <v>4400000000000</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC3878-9592-4EC8-AB1E-520FE4978DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2E511-FD17-4B18-9D31-AFFC114C0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="201">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,6 +732,38 @@
   </si>
   <si>
     <t>2000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,11 +1301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2924,7 +2956,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B137" si="7">B91*10</f>
+        <f t="shared" ref="B92:B145" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3745,6 +3777,150 @@
       </c>
       <c r="E137" s="1">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="18">
+        <v>136</v>
+      </c>
+      <c r="B138" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+216</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" s="23">
+        <v>4500000000000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="18">
+        <v>137</v>
+      </c>
+      <c r="B139" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+217</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" s="23">
+        <v>4600000000000</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="18">
+        <v>138</v>
+      </c>
+      <c r="B140" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+218</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="23">
+        <v>4700000000000</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="18">
+        <v>139</v>
+      </c>
+      <c r="B141" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+219</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141" s="23">
+        <v>4800000000000</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="18">
+        <v>140</v>
+      </c>
+      <c r="B142" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000002E+220</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142" s="23">
+        <v>4900000000000</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="18">
+        <v>141</v>
+      </c>
+      <c r="B143" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+221</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143" s="23">
+        <v>5000000000000</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="18">
+        <v>142</v>
+      </c>
+      <c r="B144" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+222</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="23">
+        <v>5100000000000</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="18">
+        <v>143</v>
+      </c>
+      <c r="B145" s="19">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+223</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="23">
+        <v>5200000000000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2E511-FD17-4B18-9D31-AFFC114C0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C466C-BA00-4FAD-A451-84B2D527C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="205">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,22 @@
   </si>
   <si>
     <t>2000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,11 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2956,7 +2972,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B145" si="7">B91*10</f>
+        <f t="shared" ref="B92:B149" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3921,6 +3937,78 @@
       </c>
       <c r="E145" s="1">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="18">
+        <v>144</v>
+      </c>
+      <c r="B146" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+224</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="23">
+        <v>5300000000000</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="18">
+        <v>145</v>
+      </c>
+      <c r="B147" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+225</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="23">
+        <v>5400000000000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="18">
+        <v>146</v>
+      </c>
+      <c r="B148" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+226</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148" s="23">
+        <v>5500000000000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="18">
+        <v>147</v>
+      </c>
+      <c r="B149" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+227</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" s="23">
+        <v>5600000000000</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C466C-BA00-4FAD-A451-84B2D527C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031338EE-0D76-402B-A80A-E43969E8D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="209">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,6 +780,22 @@
   </si>
   <si>
     <t>2000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2972,7 +2988,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B149" si="7">B91*10</f>
+        <f t="shared" ref="B92:B153" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -4009,6 +4025,78 @@
       </c>
       <c r="E149" s="1">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="18">
+        <v>148</v>
+      </c>
+      <c r="B150" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+228</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D150" s="23">
+        <v>5700000000000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="18">
+        <v>149</v>
+      </c>
+      <c r="B151" s="19">
+        <f t="shared" si="7"/>
+        <v>2E+229</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D151" s="23">
+        <v>5800000000000</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="18">
+        <v>150</v>
+      </c>
+      <c r="B152" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+230</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" s="23">
+        <v>5900000000000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="18">
+        <v>151</v>
+      </c>
+      <c r="B153" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+231</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D153" s="23">
+        <v>6000000000000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031338EE-0D76-402B-A80A-E43969E8D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE56DAE-D5AD-4DFF-8222-652DA60CA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,6 +796,22 @@
   </si>
   <si>
     <t>2000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,11 +1349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2988,7 +3004,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B153" si="7">B91*10</f>
+        <f t="shared" ref="B92:B155" si="7">B91*10</f>
         <v>1.9999999999999998E+170</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -4097,6 +4113,78 @@
       </c>
       <c r="E153" s="1">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="18">
+        <v>152</v>
+      </c>
+      <c r="B154" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998E+232</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" s="23">
+        <v>6100000000000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="18">
+        <v>153</v>
+      </c>
+      <c r="B155" s="19">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999999E+233</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" s="23">
+        <v>6200000000000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="18">
+        <v>154</v>
+      </c>
+      <c r="B156" s="19">
+        <f t="shared" ref="B156:B157" si="8">B155*10</f>
+        <v>2E+234</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156" s="23">
+        <v>6300000000000</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="18">
+        <v>155</v>
+      </c>
+      <c r="B157" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+235</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157" s="23">
+        <v>6400000000000</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE56DAE-D5AD-4DFF-8222-652DA60CA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE73F9-6CA6-4DA7-8A95-EC58ABD88CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="217">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,6 +812,22 @@
   </si>
   <si>
     <t>2000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
@@ -4156,7 +4172,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B157" si="8">B155*10</f>
+        <f t="shared" ref="B156:B161" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4185,6 +4201,78 @@
       </c>
       <c r="E157" s="1">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="18">
+        <v>156</v>
+      </c>
+      <c r="B158" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+236</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158" s="23">
+        <v>6500000000000</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="18">
+        <v>157</v>
+      </c>
+      <c r="B159" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+237</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D159" s="23">
+        <v>6600000000000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="18">
+        <v>158</v>
+      </c>
+      <c r="B160" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+238</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="23">
+        <v>6700000000000</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="18">
+        <v>159</v>
+      </c>
+      <c r="B161" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+239</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D161" s="23">
+        <v>6800000000000</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE73F9-6CA6-4DA7-8A95-EC58ABD88CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8106F87-8175-4D6E-8840-0D86DB9528D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="221">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,6 +828,22 @@
   </si>
   <si>
     <t>2000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,11 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4172,7 +4188,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B161" si="8">B155*10</f>
+        <f t="shared" ref="B156:B165" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4273,6 +4289,78 @@
       </c>
       <c r="E161" s="1">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="18">
+        <v>160</v>
+      </c>
+      <c r="B162" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E+240</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162" s="23">
+        <v>6900000000000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="18">
+        <v>161</v>
+      </c>
+      <c r="B163" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E+241</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D163" s="23">
+        <v>7000000000000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="18">
+        <v>162</v>
+      </c>
+      <c r="B164" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+242</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D164" s="23">
+        <v>7100000000000</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="18">
+        <v>163</v>
+      </c>
+      <c r="B165" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+243</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="23">
+        <v>7200000000000</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8106F87-8175-4D6E-8840-0D86DB9528D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5418378-1803-4E9C-86BF-92000D109CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="225">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,6 +844,22 @@
   </si>
   <si>
     <t>2000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,11 +1397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4188,7 +4204,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B165" si="8">B155*10</f>
+        <f t="shared" ref="B156:B169" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4361,6 +4377,78 @@
       </c>
       <c r="E165" s="1">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="18">
+        <v>164</v>
+      </c>
+      <c r="B166" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+244</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="23">
+        <v>7300000000000</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="18">
+        <v>165</v>
+      </c>
+      <c r="B167" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+245</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="23">
+        <v>7400000000000</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="18">
+        <v>166</v>
+      </c>
+      <c r="B168" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+246</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D168" s="23">
+        <v>7500000000000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="18">
+        <v>167</v>
+      </c>
+      <c r="B169" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+247</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="23">
+        <v>7600000000000</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5418378-1803-4E9C-86BF-92000D109CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DED91-F81D-4D5C-8466-590EAC638E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="229">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,6 +860,22 @@
   </si>
   <si>
     <t>2000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4204,7 +4220,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B169" si="8">B155*10</f>
+        <f t="shared" ref="B156:B173" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4449,6 +4465,78 @@
       </c>
       <c r="E169" s="1">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="18">
+        <v>168</v>
+      </c>
+      <c r="B170" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+248</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="23">
+        <v>7700000000000</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="18">
+        <v>169</v>
+      </c>
+      <c r="B171" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+249</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D171" s="23">
+        <v>7800000000000</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="18">
+        <v>170</v>
+      </c>
+      <c r="B172" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+250</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" s="23">
+        <v>7900000000000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="18">
+        <v>171</v>
+      </c>
+      <c r="B173" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+251</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D173" s="23">
+        <v>8000000000000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DED91-F81D-4D5C-8466-590EAC638E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC60AFD-445A-4E43-87DB-D3CBBC171635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="233">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,6 +876,22 @@
   </si>
   <si>
     <t>2000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,11 +1429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4220,7 +4236,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B173" si="8">B155*10</f>
+        <f t="shared" ref="B156:B177" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4537,6 +4553,78 @@
       </c>
       <c r="E173" s="1">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="18">
+        <v>172</v>
+      </c>
+      <c r="B174" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+252</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D174" s="23">
+        <v>8100000000000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="18">
+        <v>173</v>
+      </c>
+      <c r="B175" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+253</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D175" s="23">
+        <v>8200000000000</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="18">
+        <v>174</v>
+      </c>
+      <c r="B176" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+254</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D176" s="23">
+        <v>8300000000000</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="18">
+        <v>175</v>
+      </c>
+      <c r="B177" s="19">
+        <f t="shared" si="8"/>
+        <v>2E+255</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D177" s="23">
+        <v>8400000000000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SealSwordAwakeTable.xlsx
+++ b/Assets/06.Table/SealSwordAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC60AFD-445A-4E43-87DB-D3CBBC171635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEF3C0-0BAA-4328-AD90-B4B701823F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="245">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,54 @@
   </si>
   <si>
     <t>2000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,11 +1477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4236,7 +4284,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" ref="B156:B177" si="8">B155*10</f>
+        <f t="shared" ref="B156:B189" si="8">B155*10</f>
         <v>2E+234</v>
       </c>
       <c r="C156" s="21" t="s">
@@ -4625,6 +4673,222 @@
       </c>
       <c r="E177" s="1">
         <v>1.76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="18">
+        <v>176</v>
+      </c>
+      <c r="B178" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+256</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D178" s="23">
+        <v>8500000000000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="18">
+        <v>177</v>
+      </c>
+      <c r="B179" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+257</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D179" s="23">
+        <v>8600000000000</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="18">
+        <v>178</v>
+      </c>
+      <c r="B180" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+258</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D180" s="23">
+        <v>8700000000000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="18">
+        <v>179</v>
+      </c>
+      <c r="B181" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000002E+259</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D181" s="23">
+        <v>8800000000000</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="18">
+        <v>180</v>
+      </c>
+      <c r="B182" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E+260</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182" s="23">
+        <v>8900000000000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="18">
+        <v>181</v>
+      </c>
+      <c r="B183" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+261</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183" s="23">
+        <v>9000000000000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="18">
+        <v>182</v>
+      </c>
+      <c r="B184" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E+262</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D184" s="23">
+        <v>9100000000000</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="18">
+        <v>183</v>
+      </c>
+      <c r="B185" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+263</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D185" s="23">
+        <v>9200000000000</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="18">
+        <v>184</v>
+      </c>
+      <c r="B186" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+264</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="23">
+        <v>9300000000000</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="18">
+        <v>185</v>
+      </c>
+      <c r="B187" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000005E+265</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D187" s="23">
+        <v>9400000000000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="18">
+        <v>186</v>
+      </c>
+      <c r="B188" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000006E+266</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D188" s="23">
+        <v>9500000000000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="18">
+        <v>187</v>
+      </c>
+      <c r="B189" s="19">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000006E+267</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D189" s="23">
+        <v>9600000000000</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>
